--- a/backend/AajTak_Video.xlsx
+++ b/backend/AajTak_Video.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Heading</t>
   </si>
@@ -26,19 +26,63 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Israel Hamas War: 'गाजा के अस्पताल को भेजा ईंधन हमास ने चुराया', इजरायल ने द‍िया 'सबूत'</t>
+  </si>
+  <si>
+    <t>United Nations World Health Organization Hamas and many Muslim countriesIsrael targeted Gaza's largest Al Shifa hospital by air and land means.Accused of attacking and where is it that Israel provided fuel and electricity to this hospital in Ganja?The supply of water and food has been stopped due to which now all the services of this hospital have stopped.And due to this, the lives of the patients admitted in the hospital are now in danger and many patients areAccording to the United Nations, due to lack of fuel and electricity,A total of 9 people including 6 newborn children admitted in Tal have died and it is easyIn the next 12 hours, the lives of some more newborn children may also be lost in this conflict becauseThere is neither electricity nor fuel in the call, says Ganja's health ministry.Incubator beads no longer work due to lack of electricity and fuel in this hospitalIn which it has become very difficult to save the lives of newborn children and now there is a fear of death of these children.The Israeli army is being held responsible. We today's terrorists have attacked Israel.Cukur said that Israel is openly killing newborn children and the worldThey are not able to do anything to save these children and on the statement of Hamas, Muslim countries have also criticized it.Has supported and threatened Israel if it did not supply fuel and electricity to this hospitalIf there is no debate, Israel will have to pay a huge price for this, i.e. this hospital.It is proving to be a new turning point, the big thing is that whatever Hamas is telling right nowThe world is blindly believing him and accusing Israel of war crimes.You are looking and even at this time no one is talking about Israel's side.It has been said that the world which has become a hospital is actually a hospital due to war.It used to be a hospital, it is no longer there but now it has become a command center of Hamas.Below which i.e. below the hospital building, there is a huge tunnel network i.e. a surThere is a network and this network of Sauranga is so modern that from here to IsraelIsraeli army is continuously firing rockets at terrorists.It is alleged that Hamas terrorists are posing as civilians among the patients in the hospital.Those who steal hospital fuel and fire rockets at Israel and the worldIsrael's army is completely silent on Hamas's story right nowThey have released a video in which it is clearly visible that Israeli soldiers have destroyed this hospital.Fuel was supplied but later this fuel from the hospital was used in the rocket.To this hospital was stolen by Hamas terrorists and now because of no fuelIsrael is being blamed for the loss of children's lives.It is also ready to give evidence that we have sent fuel but it is not available at Ganj.</t>
+  </si>
+  <si>
+    <t>इजरायल और हमास जंग के बीच संयुक्त राष्ट्र, डब्ल्यूएचओ और हमास समेत कई मुस्लि‍म देशों ने इजरायल पर गाजा के अस्पताल को निशाना बनाने और ईंधन, बिजली, पानी और खाने की सप्लाई बंद करने को लेकर घेरा है. इसके उलट इजरायल ने एक वीड‍ियो जारी का आरोप लगाया है क‍ि उनके द्वारा भेजा गया ईंधन हमास आतंक‍ियों ने चुराया है.
+UN, WHO Hamas and many Muslim countries have accused Israel of targeting Gaza's hospital. UN says that Israel has stopped the supply of fuel, electricity, water and food to this hospital in Gaza. Due to lack of fuel and electricity supply, 9 people including 6 newborn children have died in the hospital.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/video/hamas-terrorists-stole-fuel-sent-to-gaza-hospital-israel-issues-video-as-proof-1818178-2023-11-15</t>
+  </si>
+  <si>
+    <t>विराट, बुमराह, सिराज के एवेंजर अवतार की द‍िखेगी वर्ल्डकप में आंधी? देखें सो सॉरी</t>
+  </si>
+  <si>
+    <t>so sorry</t>
+  </si>
+  <si>
+    <t>टीम इंडिया ने एशिया कप जीतकर वर्ल्ड कप के लिए बाकी टीमों को बड़ी चेतावनी दी है. रोहित शर्मा की अगुवाई वाली भारतीय टीम ने अपने दमदार प्रदर्शन से विश्व कप के लिए मजबूत दावा ठोका है. साथ ही जोस बटलर की कप्तानी वाली डिफेंडिंग चैंपियन इंग्लैंड को सतर्क भी किया है. इसी पर देखें सो सॉरी.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/programmes/so-sorry/video/so-sorry-latest-episode-on-cricket-indian-team-in-avengers-look-trending-viral-videos-sports-updates-1786280-2023-09-25</t>
+  </si>
+  <si>
+    <t>Bihar: बिहार की सियासत में नया सियासी भूचाल! राबड़ी देवी को सीएम बनाने पर वार-पलटवार</t>
+  </si>
+  <si>
+    <t>Hello, welcome to all of you, I am Rajiv Gandhi, given by Nitish Kumar in All Bihar.The matter was not calming down yet, in the meantime some more statements have been given, now Lalu Prasad Yadav and the CentralA war of words started between Nityanand Rai and Lalu Prasad Yadav from the East of Bihar from the CentralNityanand Rai and BJP attack on Parliament Nityanand RaiEveryone knows what he used to approach earlier to join RJD and today he saysIf Rabri Devi had not been made, would he have made his wife?Now let us tell you what statement Lalu Prasad Yadav gave first.The one who has become the Union Minister of State is our firstBJP made itRedRabri Devi was made the Chief Minister, not Rabri DeviRabri is not a goddessSo today our Rashtriya Janata Dalour government niteshJanata Dal government cannot be formed by the voice of Tejashwi YadavActually Nityanand Rai had recently said something about Lalu Prasad Yadav.Always said that you have not done anything for the Yaduvanshis when you went to jail in the Charak scam.Why was Rabri Devi made a SIM and why was she the daughter of a cowherd?Yadav, why did Aravali ji not make any leader of yesterday the Chief Minister?He was in your party but you did not make him the Chief Minister. I heard you.What statement had Nityanand Rai given? Lalu ji started going to jail.Why should Rabri ji be made the Chief Minister? Why not any Gawala Gawala?Would have made Jagat Babu into a daughter, would have made anyone RamchandraI would have made my life better, I would have made someone elseYou had to make it from yesterday itself, so why didn't you Hukumdev Narayan Yadav ji make it?At this time I am talking about earlier why not thank my Guru Ranjan Yadav ji.Why not make Mahavir Yadav and Gajendra Himanshu ji?Why not make Sona Dhari Babu, why not make Ganesh Babu, why not Devendra Yadav</t>
+  </si>
+  <si>
+    <t>बिहार के पूर्व मुख्यमंत्री लालू प्रसाद यादव ने केंद्रीय मंत्री नित्यानंद राय और बीजेपी सांसदों पर जमकर हमला बोला. लालू यादव ने कहा, ''नित्यानंद राय पहले क्या थे सब जानते हैं. पहले ये राजद में शामिल होने के लिए अप्रोच किया था. आज कहता है कि लालू यादव ने राबड़ी देवी को सीएम बना दिया. राबड़ी देवी को नही बनाता तो क्या उसकी बीबी को बना देता.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/india/bihar/video/lalu-yadav-vs-nityananda-rai-new-political-upheaval-over-making-rabri-devi-cm-of-bihar-1818952-2023-11-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,13 +102,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +427,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>